--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_no_promiscuous2.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_no_promiscuous2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,348 +32,354 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="114">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>toy_model1_no_promiscuous2</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>m4</t>
-  </si>
-  <si>
-    <t>m5</t>
-  </si>
-  <si>
-    <t>m6</t>
-  </si>
-  <si>
-    <t>m7</t>
-  </si>
-  <si>
-    <t>m8</t>
-  </si>
-  <si>
-    <t>m9</t>
-  </si>
-  <si>
-    <t>m10</t>
-  </si>
-  <si>
-    <t>m11</t>
-  </si>
-  <si>
-    <t>m12</t>
-  </si>
-  <si>
-    <t>m13</t>
-  </si>
-  <si>
-    <t>m14</t>
-  </si>
-  <si>
-    <t>m15</t>
-  </si>
-  <si>
-    <t>m16</t>
-  </si>
-  <si>
-    <t>m17</t>
-  </si>
-  <si>
-    <t>m18</t>
-  </si>
-  <si>
-    <t>m19</t>
-  </si>
-  <si>
-    <t>m20</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>r3</t>
-  </si>
-  <si>
-    <t>r4</t>
-  </si>
-  <si>
-    <t>r5</t>
-  </si>
-  <si>
-    <t>r6</t>
-  </si>
-  <si>
-    <t>r7</t>
-  </si>
-  <si>
-    <t>r8</t>
-  </si>
-  <si>
-    <t>r9</t>
-  </si>
-  <si>
-    <t>r10</t>
-  </si>
-  <si>
-    <t>r11</t>
-  </si>
-  <si>
-    <t>r12</t>
-  </si>
-  <si>
-    <t>r13</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>measured?</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>isoenzymes</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>rxn</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t>min (M)</t>
-  </si>
-  <si>
-    <t>max (M)</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t>MBo10_mean</t>
-  </si>
-  <si>
-    <t>MBo10_std</t>
-  </si>
-  <si>
-    <t>MBo10_mean2</t>
-  </si>
-  <si>
-    <t>MBo10_std2</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>substrate order</t>
-  </si>
-  <si>
-    <t>product order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effectors</t>
-  </si>
-  <si>
-    <t>positive effectors</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>mechanism_refs_type</t>
-  </si>
-  <si>
-    <t>mechanism_refs</t>
-  </si>
-  <si>
-    <t>inhibitors_refs_type</t>
-  </si>
-  <si>
-    <t>inhibitors_refs</t>
-  </si>
-  <si>
-    <t>activators_refs_type</t>
-  </si>
-  <si>
-    <t>activators_refs</t>
-  </si>
-  <si>
-    <t>negative_effectors_refs_type</t>
-  </si>
-  <si>
-    <t>negative_effectors_refs</t>
-  </si>
-  <si>
-    <t>positive_effectors_refs_type</t>
-  </si>
-  <si>
-    <t>positive_effectors_refs</t>
-  </si>
-  <si>
-    <t>subunits_refs_type</t>
-  </si>
-  <si>
-    <t>subunits_refs</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>substrateInhibOrderedBiBi</t>
-  </si>
-  <si>
-    <t>m3 m6</t>
-  </si>
-  <si>
-    <t>m5 m14</t>
-  </si>
-  <si>
-    <t>UniUni</t>
-  </si>
-  <si>
-    <t>orderedBiBiCompInhib</t>
-  </si>
-  <si>
-    <t>m1 m7</t>
-  </si>
-  <si>
-    <t>m8 m12</t>
-  </si>
-  <si>
-    <t>randomBiBi</t>
-  </si>
-  <si>
-    <t>m2 m8</t>
-  </si>
-  <si>
-    <t>m9 m13</t>
-  </si>
-  <si>
-    <t>m1 m10</t>
-  </si>
-  <si>
-    <t>m11 m12</t>
-  </si>
-  <si>
-    <t>massAction</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="116">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy_model1_no_promiscuous2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transportRxn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxes (umol/gCDW/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_mean2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_std2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzyme/rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_meas2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrate order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mechanism_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mechanism_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative_effectors_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative_effectors_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive_effectors_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive_effectors_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrateInhibOrderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniUni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiBiCompInhib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1 m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8 m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2 m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9 m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11 m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
   </si>
 </sst>
 </file>
@@ -381,7 +387,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -464,13 +470,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -494,15 +504,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3:B7 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -537,17 +547,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -555,44 +565,44 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -600,21 +610,29 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -629,35 +647,35 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3:B7 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -674,7 +692,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -691,7 +709,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -708,7 +726,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -725,7 +743,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -742,7 +760,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -760,7 +778,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -775,32 +793,32 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3:B7 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -814,7 +832,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -828,7 +846,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -842,7 +860,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -856,7 +874,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -870,7 +888,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -884,7 +902,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -898,7 +916,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -912,7 +930,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -926,7 +944,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -940,7 +958,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -954,7 +972,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -968,7 +986,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -983,7 +1001,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -998,32 +1016,32 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3:B7 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -1037,7 +1055,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1051,7 +1069,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1065,7 +1083,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1079,7 +1097,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1093,7 +1111,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1107,7 +1125,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1121,7 +1139,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1135,7 +1153,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1149,7 +1167,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1163,7 +1181,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1177,7 +1195,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1191,7 +1209,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1205,7 +1223,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1219,7 +1237,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1233,7 +1251,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1247,7 +1265,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1261,7 +1279,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1275,7 +1293,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1289,7 +1307,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1304,7 +1322,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1319,106 +1337,106 @@
   </sheetPr>
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3:B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A5:B5 B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.502024291498"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1465,16 +1483,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1521,19 +1539,19 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1580,16 +1598,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1636,16 +1654,16 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1692,19 +1710,19 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1751,10 +1769,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1801,10 +1819,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1851,10 +1869,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1901,10 +1919,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1951,10 +1969,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -2001,10 +2019,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -2051,10 +2069,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -2102,7 +2120,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2117,83 +2135,83 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3:B7 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -2258,7 +2276,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -2323,7 +2341,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -2388,7 +2406,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -2453,7 +2471,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2518,7 +2536,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2583,7 +2601,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2648,7 +2666,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2713,7 +2731,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2778,7 +2796,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2843,7 +2861,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2908,7 +2926,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2973,7 +2991,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -3039,7 +3057,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3054,41 +3072,41 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3:B7 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3105,10 +3123,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3125,10 +3143,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3145,10 +3163,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3165,10 +3183,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -3185,10 +3203,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -3205,10 +3223,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -3225,10 +3243,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -3245,10 +3263,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -3265,10 +3283,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -3285,10 +3303,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -3305,10 +3323,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3325,10 +3343,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3345,10 +3363,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -3365,10 +3383,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -3385,10 +3403,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -3405,10 +3423,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -3425,10 +3443,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -3445,10 +3463,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -3465,10 +3483,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -3486,7 +3504,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3501,38 +3519,38 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3:B7 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3543,10 +3561,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3557,10 +3575,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3571,10 +3589,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3585,10 +3603,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3599,10 +3617,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3613,10 +3631,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3627,10 +3645,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3641,10 +3659,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3655,10 +3673,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3669,10 +3687,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3683,10 +3701,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3697,10 +3715,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3712,7 +3730,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3727,89 +3745,89 @@
   </sheetPr>
   <dimension ref="A2:A15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3:B7 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3824,124 +3842,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3:B7 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3956,124 +3974,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3:B7 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4088,29 +4106,29 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3:B7 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -4121,7 +4139,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -4132,7 +4150,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -4143,7 +4161,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -4154,7 +4172,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -4165,7 +4183,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -4176,7 +4194,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -4187,7 +4205,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -4198,7 +4216,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -4209,7 +4227,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -4220,7 +4238,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -4231,7 +4249,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -4242,7 +4260,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -4254,7 +4272,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4269,29 +4287,29 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3:B7 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -4302,7 +4320,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -4313,7 +4331,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -4324,7 +4342,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -4335,7 +4353,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -4346,7 +4364,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -4357,7 +4375,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -4368,7 +4386,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -4379,7 +4397,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -4390,7 +4408,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -4401,7 +4419,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -4412,7 +4430,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -4423,7 +4441,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -4434,7 +4452,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -4445,7 +4463,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -4456,7 +4474,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -4467,7 +4485,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -4478,7 +4496,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -4489,7 +4507,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -4500,7 +4518,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -4512,7 +4530,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_no_promiscuous2.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_no_promiscuous2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -506,8 +506,8 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="D2:E7 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -647,8 +647,8 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -673,7 +673,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -681,16 +681,18 @@
         <v>-22.0149320730417</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1.10350536706976</v>
+        <f aca="false">ABS(0.15*B2)</f>
+        <v>3.30223981095625</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>-22.0149320730417</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1.10350536706976</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">ABS(0.15*D2)</f>
+        <v>3.30223981095625</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -698,16 +700,18 @@
         <v>0.285369137837419</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
+        <f aca="false">ABS(0.15*B3)</f>
+        <v>0.0428053706756129</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0.285369137837419</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">ABS(0.15*D3)</f>
+        <v>0.0428053706756129</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -715,16 +719,18 @@
         <v>0.0578197638950879</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
+        <f aca="false">ABS(0.15*B4)</f>
+        <v>0.00867296458426318</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0.0578197638950879</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">ABS(0.15*D4)</f>
+        <v>0.00867296458426318</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -732,16 +738,18 @@
         <v>-0.00439408376660814</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
+        <f aca="false">ABS(0.15*B5)</f>
+        <v>0.000659112564991221</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>-0.00439408376660814</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">ABS(0.15*D5)</f>
+        <v>0.000659112564991221</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -749,16 +757,18 @@
         <v>6.84865633256387</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
+        <f aca="false">ABS(0.15*B6)</f>
+        <v>1.02729844988458</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>6.84865633256387</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">ABS(0.15*D6)</f>
+        <v>1.02729844988458</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -766,13 +776,15 @@
         <v>-0.00242684925806694</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
+        <f aca="false">ABS(0.15*B7)</f>
+        <v>0.000364027388710041</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>-0.00242684925806694</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
+        <f aca="false">ABS(0.15*D7)</f>
+        <v>0.000364027388710041</v>
       </c>
     </row>
   </sheetData>
@@ -794,7 +806,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2:E7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1017,7 +1029,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2:E7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1338,7 +1350,7 @@
   <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A5:B5 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="D2:E7 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2136,7 +2148,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2:E7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3073,7 +3085,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2:E7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3520,7 +3532,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2:E7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3746,7 +3758,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2:E7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3843,7 +3855,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2:E7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3975,7 +3987,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2:E7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4107,7 +4119,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2:E7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4288,7 +4300,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2:E7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_no_promiscuous2.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_no_promiscuous2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="110">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -46,13 +46,13 @@
     <t xml:space="preserve">toy_model1_no_promiscuous2</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
@@ -79,18 +79,9 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
   </si>
   <si>
@@ -205,12 +196,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed?</t>
-  </si>
-  <si>
     <t xml:space="preserve">measured?</t>
   </si>
   <si>
@@ -218,9 +203,6 @@
   </si>
   <si>
     <t xml:space="preserve">transportRxn?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelled?</t>
   </si>
   <si>
     <t xml:space="preserve">isoenzymes</t>
@@ -504,10 +486,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="D2:E7 A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -523,24 +505,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -599,6 +581,9 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -608,27 +593,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -647,8 +614,8 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B3 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -658,24 +625,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -694,7 +661,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -713,7 +680,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -732,7 +699,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -751,7 +718,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -770,7 +737,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -806,7 +773,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2:E7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -816,21 +783,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -844,7 +811,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -858,7 +825,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -872,7 +839,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -886,7 +853,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -900,7 +867,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -914,7 +881,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -928,7 +895,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -942,7 +909,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -956,7 +923,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -970,7 +937,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -984,7 +951,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -998,7 +965,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1029,7 +996,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2:E7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1039,21 +1006,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -1067,7 +1034,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1081,7 +1048,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1095,7 +1062,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1109,7 +1076,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1123,7 +1090,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1137,7 +1104,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1151,7 +1118,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1165,7 +1132,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1179,7 +1146,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1193,7 +1160,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1207,7 +1174,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1221,7 +1188,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1235,7 +1202,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1249,7 +1216,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1263,7 +1230,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1277,7 +1244,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1291,7 +1258,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1305,7 +1272,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1319,7 +1286,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1350,7 +1317,7 @@
   <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="D2:E7 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1362,93 +1329,93 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1495,16 +1462,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1551,19 +1518,19 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1610,16 +1577,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1666,16 +1633,16 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1722,19 +1689,19 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>113</v>
-      </c>
       <c r="D7" s="0" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1781,10 +1748,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1831,10 +1798,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1881,10 +1848,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1931,10 +1898,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1981,10 +1948,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -2031,10 +1998,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -2081,10 +2048,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -2148,7 +2115,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2:E7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2158,72 +2125,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -2288,7 +2255,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -2353,7 +2320,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -2418,7 +2385,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -2483,7 +2450,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2548,7 +2515,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2613,7 +2580,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2678,7 +2645,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2743,7 +2710,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2808,7 +2775,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2873,7 +2840,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2938,7 +2905,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -3003,7 +2970,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -3082,434 +3049,309 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2:E7 A1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B8" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B10" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B11" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B13" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B14" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B15" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B16" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B17" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B18" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B19" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B20" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B21" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3529,214 +3371,173 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2:E7 A1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B7" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B8" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B9" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B10" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B11" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B13" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B14" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3758,7 +3559,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2:E7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3768,72 +3569,72 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3855,7 +3656,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2:E7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3865,107 +3666,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3987,7 +3788,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2:E7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3997,107 +3798,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4119,7 +3920,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2:E7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4129,18 +3930,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -4151,7 +3952,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -4162,7 +3963,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -4173,7 +3974,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -4184,7 +3985,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -4195,7 +3996,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -4206,7 +4007,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -4217,7 +4018,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -4228,7 +4029,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -4239,7 +4040,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -4250,7 +4051,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -4261,7 +4062,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -4272,7 +4073,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -4300,7 +4101,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2:E7 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4310,18 +4111,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -4332,7 +4133,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -4343,7 +4144,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -4354,7 +4155,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -4365,7 +4166,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -4376,7 +4177,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -4387,7 +4188,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -4398,7 +4199,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -4409,7 +4210,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -4420,7 +4221,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -4431,7 +4232,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -4442,7 +4243,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -4453,7 +4254,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -4464,7 +4265,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -4475,7 +4276,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -4486,7 +4287,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -4497,7 +4298,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -4508,7 +4309,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -4519,7 +4320,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -4530,7 +4331,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_no_promiscuous2.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_no_promiscuous2.xlsx
@@ -489,7 +489,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="Z11" activeCellId="0" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -542,7 +542,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -615,7 +615,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B3 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -773,7 +773,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -996,7 +996,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2115,7 +2115,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3052,7 +3052,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3374,7 +3374,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3559,7 +3559,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3656,7 +3656,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3788,7 +3788,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3920,7 +3920,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4101,7 +4101,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_no_promiscuous2.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_no_promiscuous2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="109">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
   </si>
   <si>
     <t xml:space="preserve">reaction name</t>
@@ -488,7 +485,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Z11" activeCellId="0" sqref="Z11"/>
     </sheetView>
   </sheetViews>
@@ -625,19 +622,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -783,16 +780,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1006,16 +1003,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1329,76 +1326,76 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1406,13 +1403,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>99</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>23</v>
@@ -1465,7 +1462,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>22</v>
@@ -1521,13 +1518,13 @@
         <v>40</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>103</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>26</v>
@@ -1580,13 +1577,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>105</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>106</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1636,7 +1633,7 @@
         <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>23</v>
@@ -1692,13 +1689,13 @@
         <v>43</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>108</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>26</v>
@@ -1751,7 +1748,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1801,7 +1798,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1851,7 +1848,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1901,7 +1898,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1951,7 +1948,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -2001,7 +1998,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -2051,7 +2048,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -3049,16 +3046,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3071,9 +3068,6 @@
       <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -3085,9 +3079,6 @@
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -3099,9 +3090,6 @@
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -3113,9 +3101,6 @@
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -3127,9 +3112,6 @@
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -3141,9 +3123,6 @@
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -3155,9 +3134,6 @@
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -3169,9 +3145,6 @@
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -3183,9 +3156,6 @@
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -3197,9 +3167,6 @@
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -3211,9 +3178,6 @@
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -3225,9 +3189,6 @@
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -3239,9 +3200,6 @@
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -3253,9 +3211,6 @@
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -3267,9 +3222,6 @@
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -3281,9 +3233,6 @@
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
@@ -3295,9 +3244,6 @@
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -3309,9 +3255,6 @@
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -3323,9 +3266,6 @@
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -3337,9 +3277,6 @@
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
@@ -3349,9 +3286,6 @@
         <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3388,13 +3322,13 @@
         <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3666,7 +3600,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3798,7 +3732,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3930,13 +3864,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4111,13 +4045,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_no_promiscuous2.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_no_promiscuous2.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="109">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -609,164 +608,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <f aca="false">ABS(0.15*B2)</f>
-        <v>3.30223981095625</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <f aca="false">ABS(0.15*D2)</f>
-        <v>3.30223981095625</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <f aca="false">ABS(0.15*B3)</f>
-        <v>0.0428053706756129</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <f aca="false">ABS(0.15*D3)</f>
-        <v>0.0428053706756129</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <f aca="false">ABS(0.15*B4)</f>
-        <v>0.00867296458426318</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <f aca="false">ABS(0.15*D4)</f>
-        <v>0.00867296458426318</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <f aca="false">ABS(0.15*B5)</f>
-        <v>0.000659112564991221</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <f aca="false">ABS(0.15*D5)</f>
-        <v>0.000659112564991221</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <f aca="false">ABS(0.15*B6)</f>
-        <v>1.02729844988458</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <f aca="false">ABS(0.15*D6)</f>
-        <v>1.02729844988458</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <f aca="false">ABS(0.15*B7)</f>
-        <v>0.000364027388710041</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <f aca="false">ABS(0.15*D7)</f>
-        <v>0.000364027388710041</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -985,7 +826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1306,7 +1147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3048,7 +2889,7 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -3490,10 +3331,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A15"/>
+  <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3503,72 +3344,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3719,138 +3595,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A22"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -4027,7 +3771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4283,4 +4027,162 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <f aca="false">ABS(0.15*B2)</f>
+        <v>3.30223981095625</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <f aca="false">ABS(0.15*D2)</f>
+        <v>3.30223981095625</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <f aca="false">ABS(0.15*B3)</f>
+        <v>0.0428053706756129</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">ABS(0.15*D3)</f>
+        <v>0.0428053706756129</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <f aca="false">ABS(0.15*B4)</f>
+        <v>0.00867296458426318</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">ABS(0.15*D4)</f>
+        <v>0.00867296458426318</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <f aca="false">ABS(0.15*B5)</f>
+        <v>0.000659112564991221</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">ABS(0.15*D5)</f>
+        <v>0.000659112564991221</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <f aca="false">ABS(0.15*B6)</f>
+        <v>1.02729844988458</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">ABS(0.15*D6)</f>
+        <v>1.02729844988458</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <f aca="false">ABS(0.15*B7)</f>
+        <v>0.000364027388710041</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">ABS(0.15*D7)</f>
+        <v>0.000364027388710041</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_no_promiscuous2.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_no_promiscuous2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="112">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -448,7 +457,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -459,6 +468,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -484,8 +497,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z11" activeCellId="0" sqref="Z11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -533,64 +546,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -611,7 +638,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A6:B7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -621,21 +648,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -649,7 +676,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -663,7 +690,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -677,7 +704,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -691,7 +718,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -705,7 +732,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -719,7 +746,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -733,7 +760,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -747,7 +774,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -761,7 +788,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -775,7 +802,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -789,7 +816,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -803,7 +830,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -834,7 +861,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A6:B7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -844,21 +871,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -872,7 +899,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -886,7 +913,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -900,7 +927,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -914,7 +941,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -928,7 +955,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -942,7 +969,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -956,7 +983,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -970,7 +997,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -984,7 +1011,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -998,7 +1025,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1012,7 +1039,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1026,7 +1053,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1040,7 +1067,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1054,7 +1081,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1068,7 +1095,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1082,7 +1109,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1096,7 +1123,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1110,7 +1137,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1124,7 +1151,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1155,7 +1182,7 @@
   <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A6:B7 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1167,93 +1194,93 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1300,16 +1327,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>99</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1356,19 +1383,19 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>100</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1415,16 +1442,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>103</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1471,16 +1498,16 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>99</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1527,19 +1554,19 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>100</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -1586,10 +1613,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1636,10 +1663,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1686,10 +1713,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1736,10 +1763,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1786,10 +1813,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1836,10 +1863,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1886,10 +1913,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1953,7 +1980,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A6:B7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1963,72 +1990,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -2093,7 +2120,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -2158,7 +2185,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -2223,7 +2250,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -2288,7 +2315,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2353,7 +2380,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2418,7 +2445,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2483,7 +2510,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2548,7 +2575,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2613,7 +2640,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2678,7 +2705,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2743,7 +2770,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2808,7 +2835,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2890,7 +2917,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2901,21 +2928,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2923,10 +2950,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2934,10 +2961,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2945,10 +2972,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2956,10 +2983,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2967,10 +2994,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2978,10 +3005,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2989,10 +3016,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -3000,10 +3027,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -3011,10 +3038,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -3022,10 +3049,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -3033,10 +3060,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3044,10 +3071,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3055,10 +3082,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -3066,10 +3093,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -3077,10 +3104,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -3088,10 +3115,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -3099,10 +3126,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -3110,10 +3137,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -3121,10 +3148,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -3149,7 +3176,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3160,24 +3187,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3185,10 +3212,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3196,10 +3223,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3207,10 +3234,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3218,10 +3245,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3229,10 +3256,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3240,10 +3267,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3251,10 +3278,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3262,10 +3289,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3273,10 +3300,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3284,10 +3311,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3295,10 +3322,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3306,10 +3333,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3333,8 +3360,8 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3344,107 +3371,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3466,7 +3493,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A6:B7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3476,107 +3503,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3598,7 +3625,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A6:B7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3608,18 +3635,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3630,7 +3657,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3641,7 +3668,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3652,7 +3679,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3663,7 +3690,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3674,7 +3701,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3685,7 +3712,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3696,7 +3723,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3707,7 +3734,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3718,7 +3745,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3729,7 +3756,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3740,7 +3767,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3751,7 +3778,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3779,7 +3806,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A6:B7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3789,18 +3816,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3811,7 +3838,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3822,7 +3849,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3833,7 +3860,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3844,7 +3871,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3855,7 +3882,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3866,7 +3893,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3877,7 +3904,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3888,7 +3915,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3899,7 +3926,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3910,7 +3937,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3921,7 +3948,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3932,7 +3959,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3943,7 +3970,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3954,7 +3981,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3965,7 +3992,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3976,7 +4003,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3987,7 +4014,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3998,7 +4025,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -4009,7 +4036,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -4037,7 +4064,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A6:B7 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4047,24 +4074,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -4083,7 +4110,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -4102,7 +4129,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -4121,7 +4148,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -4140,7 +4167,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -4159,7 +4186,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
